--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -572,7 +572,7 @@
         <v>44208</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44530</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>44760</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44965</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44977</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43318</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43322</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43340</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43383</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43384</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43391</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43429</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43438</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43446</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43454</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43476</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43490</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43495</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43499</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43501</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43509</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43510</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43516</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43517</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43524</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43535</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43539</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43543</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43545</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43557</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43563</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43579</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43584</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43587</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43599</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43602</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43612</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43619</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43633</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43643</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43648</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43650</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>43656</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>43657</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43678</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43692</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43696</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43697</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>43705</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>43710</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>43713</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43717</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43720</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43725</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43727</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43742</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43760</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43771</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43775</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43782</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43787</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43791</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43797</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43810</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43811</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43841</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43847</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43858</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43865</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43868</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43882</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43885</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43886</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43893</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43899</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43902</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43903</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43910</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43922</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43923</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43937</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>43943</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>43949</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43966</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43974</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43975</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43989</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43997</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44000</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44004</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44014</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44015</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44025</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44027</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44047</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44064</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44066</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44069</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44070</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44078</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44081</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44083</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44088</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44100</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44118</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44119</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44126</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44133</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>44138</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44140</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44145</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44146</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         <v>44148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44159</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44161</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44165</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44173</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44207</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44208</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44209</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44215</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44216</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44224</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>44228</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44232</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44235</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44236</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>44237</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>44239</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>44242</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>44244</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44246</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44250</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44265</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44273</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>44284</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>44285</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>44299</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>44302</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>44305</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>44308</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44316</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44319</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44323</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44328</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44343</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44353</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44355</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44358</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44365</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44371</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44376</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44378</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44379</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44400</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44406</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44414</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44421</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44428</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44446</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44454</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44455</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44456</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44459</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44465</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44467</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44488</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44489</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44495</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44496</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44498</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44501</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44507</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44516</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44519</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44522</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44530</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44544</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44563</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44575</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44594</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44606</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44607</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44614</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44615</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44626</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44648</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44712</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
         <v>44715</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23345,7 +23345,7 @@
         <v>44721</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44725</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44735</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44748</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44791</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44802</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24257,7 +24257,7 @@
         <v>44810</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>44818</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44860</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44873</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44893</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44894</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44896</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44903</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44910</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44917</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>44923</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44931</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44935</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44952</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44957</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44966</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44971</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44974</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44977</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45002</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>45008</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>45009</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>45012</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>45026</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>45027</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45028</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45040</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45051</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45084</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45092</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>45093</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27303,7 +27303,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27588,7 +27588,7 @@
         <v>45098</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>45100</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45103</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>45110</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>45111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>45112</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>45119</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>45135</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>45153</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>45154</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>45159</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>45161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>45166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -572,7 +572,7 @@
         <v>44208</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44530</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>44760</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44965</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44977</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43318</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43322</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43340</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43383</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43384</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43391</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43429</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43438</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43446</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43454</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43476</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43490</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43495</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43499</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43501</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43509</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43510</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43516</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43517</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43524</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43535</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43539</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43543</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43545</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43557</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43563</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43579</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43584</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43587</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43599</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43602</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43612</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43619</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43633</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43643</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43648</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43650</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>43656</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>43657</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43678</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43692</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43696</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43697</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>43705</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>43710</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>43713</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43717</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43720</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43725</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43727</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43742</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43760</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43771</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43775</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43782</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43787</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43791</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43797</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43810</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43811</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43841</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43847</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43858</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43865</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43868</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43882</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43885</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43886</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43893</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43899</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43902</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43903</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43910</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43922</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43923</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43937</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>43943</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>43949</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43966</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43974</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43975</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43989</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43997</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44000</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44004</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44014</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44015</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44025</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44027</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44047</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44064</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44066</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44069</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44070</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44078</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44081</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44083</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44088</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44100</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44118</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44119</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44126</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44133</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>44138</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44140</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44145</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44146</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         <v>44148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44159</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44161</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44165</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44173</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44207</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44208</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44209</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44215</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44216</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44224</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>44228</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44232</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44235</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44236</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>44237</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>44239</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>44242</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>44244</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44246</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44250</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44265</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44273</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>44284</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>44285</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>44299</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>44302</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>44305</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>44308</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44316</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44319</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44323</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44328</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44343</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44353</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44355</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44358</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44365</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44371</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44376</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44378</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44379</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44400</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44406</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44414</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44421</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44428</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44446</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44454</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44455</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44456</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44459</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44465</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44467</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44488</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44489</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44495</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44496</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44498</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44501</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44507</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44516</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44519</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44522</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44530</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44544</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44563</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44575</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44594</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44606</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44607</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44614</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44615</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44626</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44648</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44712</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
         <v>44715</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23345,7 +23345,7 @@
         <v>44721</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44725</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44735</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44748</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44791</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44802</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24257,7 +24257,7 @@
         <v>44810</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>44818</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44860</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44873</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44893</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44894</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44896</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44903</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44910</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44917</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>44923</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44931</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44935</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44952</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44957</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44966</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44971</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44974</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44977</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45002</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>45008</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>45009</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>45012</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>45026</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>45027</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45028</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45040</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45051</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45084</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45092</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>45093</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27303,7 +27303,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27588,7 +27588,7 @@
         <v>45098</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>45100</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45103</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>45110</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>45111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>45112</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>45119</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>45135</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>45153</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>45154</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>45159</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>45161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>45166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y494"/>
+  <dimension ref="A1:Y495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44208</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44530</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>44760</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44965</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44977</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43318</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43322</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43340</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43383</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43384</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43391</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43429</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43438</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43446</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43454</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43476</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43490</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43495</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43499</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43501</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43509</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43510</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43516</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43517</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43524</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43535</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43539</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43543</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43545</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43557</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43563</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43579</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43584</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43587</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43599</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43602</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43612</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43619</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43633</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43643</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43648</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43650</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>43656</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>43657</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43678</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43692</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43696</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43697</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>43705</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>43710</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>43713</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43717</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43720</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43725</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43727</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43742</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43760</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43771</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43775</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43782</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43787</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43791</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43797</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43810</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43811</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43841</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43847</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43858</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43865</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43868</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43882</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43885</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43886</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43893</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43899</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43902</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43903</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43910</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43922</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43923</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43937</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>43943</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>43949</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43966</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43974</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43975</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43989</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43997</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44000</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44004</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44014</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44015</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44025</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44027</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44047</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44064</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44066</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44069</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44070</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44078</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44081</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44083</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44088</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44100</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44118</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44119</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44126</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44133</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>44138</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44140</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44145</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44146</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         <v>44148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44159</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44161</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44165</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44173</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44207</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44208</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44209</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44215</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44216</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44224</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>44228</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44232</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44235</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44236</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>44237</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>44239</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>44242</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>44244</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44246</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44250</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44265</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44273</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>44284</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>44285</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>44299</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>44302</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>44305</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>44308</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44316</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44319</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44323</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44328</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44343</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44353</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44355</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44358</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44365</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44371</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44376</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44378</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44379</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44400</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44406</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44414</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44421</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44428</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44446</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44454</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44455</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44456</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44459</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44465</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44467</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44488</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44489</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44495</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44496</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44498</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44501</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44507</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44516</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44519</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44522</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44530</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44544</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44563</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44575</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44594</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44606</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44607</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44614</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44615</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44626</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44648</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44712</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
         <v>44715</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23345,7 +23345,7 @@
         <v>44721</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44725</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44735</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44748</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44791</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44802</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24257,7 +24257,7 @@
         <v>44810</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>44818</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44860</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44873</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44893</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44894</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44896</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44903</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44910</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44917</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>44923</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44931</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44935</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44952</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44957</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44966</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44971</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44974</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44977</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45002</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>45008</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>45009</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>45012</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>45026</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>45027</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45028</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45040</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45051</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45084</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45092</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>45093</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27303,7 +27303,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27588,7 +27588,7 @@
         <v>45098</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>45100</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45103</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>45110</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>45111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>45112</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>45119</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>45135</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>45153</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>45154</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>45159</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>45161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
       </c>
       <c r="R493" s="2" t="inlineStr"/>
     </row>
-    <row r="494">
+    <row r="494" ht="15" customHeight="1">
       <c r="A494" t="inlineStr">
         <is>
           <t>A 39161-2023</t>
@@ -29147,7 +29147,7 @@
         <v>45166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29193,6 +29193,68 @@
         <v>0</v>
       </c>
       <c r="R494" s="2" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>A 41757-2023</t>
+        </is>
+      </c>
+      <c r="B495" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C495" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>GISLAVED</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G495" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H495" t="n">
+        <v>0</v>
+      </c>
+      <c r="I495" t="n">
+        <v>0</v>
+      </c>
+      <c r="J495" t="n">
+        <v>0</v>
+      </c>
+      <c r="K495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N495" t="n">
+        <v>0</v>
+      </c>
+      <c r="O495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R495" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -572,7 +572,7 @@
         <v>44208</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44530</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>44760</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44965</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44977</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43318</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43322</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43340</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43383</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43384</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43391</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43429</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43438</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43446</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43454</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43476</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43490</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43495</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43499</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43501</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43509</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43510</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43516</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43517</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43524</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43535</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43539</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43543</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43545</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43557</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43563</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43579</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43584</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43587</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43599</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43602</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43612</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43619</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43633</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43643</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43648</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43650</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>43656</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>43657</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43678</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43692</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43696</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43697</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>43705</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>43710</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>43713</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43717</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43720</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43725</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43727</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43742</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43760</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43771</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43775</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43782</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43787</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43791</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43797</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43810</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43811</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43841</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43847</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43858</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43865</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43868</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43882</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43885</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43886</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43893</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43899</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43902</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43903</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43910</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43922</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43923</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43937</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>43943</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>43949</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43966</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43974</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43975</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43989</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43997</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44000</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44004</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44014</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44015</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44025</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44027</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44047</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44064</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44066</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44069</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44070</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44078</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44081</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44083</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44088</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44100</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44118</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44119</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44126</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44133</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>44138</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44140</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44145</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44146</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         <v>44148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44159</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44161</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44165</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44173</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44207</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44208</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44209</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44215</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44216</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44224</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>44228</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44232</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44235</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44236</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>44237</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>44239</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>44242</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>44244</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44246</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44250</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44265</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44273</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>44284</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>44285</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>44299</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>44302</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>44305</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>44308</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44316</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44319</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44323</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44328</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44343</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44353</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44355</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44358</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44365</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44371</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44376</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44378</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44379</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44400</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44406</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44414</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44421</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44428</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44446</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44454</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44455</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44456</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44459</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44465</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44467</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44488</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44489</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44495</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44496</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44498</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44501</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44507</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44516</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44519</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44522</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44530</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44544</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44563</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44575</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44594</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44606</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44607</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44614</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44615</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44626</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44648</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44712</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
         <v>44715</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23345,7 +23345,7 @@
         <v>44721</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44725</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44735</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44748</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44791</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44802</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24257,7 +24257,7 @@
         <v>44810</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>44818</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44860</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44873</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44893</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44894</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44896</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44903</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44910</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44917</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>44923</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44931</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44935</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44952</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44957</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44966</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44971</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44974</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44977</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45002</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>45008</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>45009</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>45012</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>45026</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>45027</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45028</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45040</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45051</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45084</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45092</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>45093</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27303,7 +27303,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27588,7 +27588,7 @@
         <v>45098</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>45100</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45103</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>45110</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>45111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>45112</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>45119</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>45135</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>45153</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>45154</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>45159</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>45161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>45166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>45176</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -572,7 +572,7 @@
         <v>44208</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44530</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>44760</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44965</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44977</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43318</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43322</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43340</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43383</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43384</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43391</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43429</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43438</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43446</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43454</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43476</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43490</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43495</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43499</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43501</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43509</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43510</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43516</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43517</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43524</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43535</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43539</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43543</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43545</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43557</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43563</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43579</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43584</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43587</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43599</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43602</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43612</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43619</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43633</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43643</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43648</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43650</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>43656</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>43657</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43678</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43692</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43696</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43697</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>43705</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>43710</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>43713</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43717</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43720</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43725</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43727</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43742</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43760</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43771</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43775</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43782</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43787</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43791</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43797</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43810</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43811</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43841</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43847</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43858</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43865</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43868</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43882</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43885</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43886</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43893</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43899</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43902</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43903</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43910</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43922</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43923</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43937</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>43943</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>43949</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43966</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43974</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43975</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43989</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43997</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44000</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44004</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44014</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44015</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44025</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44027</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44047</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44064</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44066</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44069</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44070</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44078</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44081</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44083</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44088</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44100</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44118</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44119</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44126</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44133</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>44138</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44140</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44145</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44146</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         <v>44148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44159</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44161</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44165</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44173</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44207</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44208</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44209</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44215</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44216</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44224</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>44228</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44232</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44235</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44236</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>44237</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>44239</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>44242</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>44244</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44246</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44250</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44265</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44273</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>44284</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>44285</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>44299</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>44302</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>44305</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>44308</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44316</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44319</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44323</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44328</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44343</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44353</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44355</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44358</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44365</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44371</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44376</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44378</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44379</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44400</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44406</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44414</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44421</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44428</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44446</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44454</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44455</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44456</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44459</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44465</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44467</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44488</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44489</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44495</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44496</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44498</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44501</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44507</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44516</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44519</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44522</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44530</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44544</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44563</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44575</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44594</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44606</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44607</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44614</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44615</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44626</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44648</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44712</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
         <v>44715</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23345,7 +23345,7 @@
         <v>44721</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44725</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44735</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44748</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44791</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44802</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24257,7 +24257,7 @@
         <v>44810</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>44818</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44860</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44873</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44893</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44894</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44896</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44903</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44910</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44917</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>44923</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44931</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44935</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44952</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44957</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44966</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44971</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44974</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44977</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45002</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>45008</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>45009</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>45012</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>45026</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>45027</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45028</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45040</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45051</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45084</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45092</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>45093</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27303,7 +27303,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27588,7 +27588,7 @@
         <v>45098</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>45100</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45103</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>45110</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>45111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>45112</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>45119</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>45135</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>45153</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>45154</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>45159</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>45161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>45166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>45176</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -572,7 +572,7 @@
         <v>44208</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44530</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>44760</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44965</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44977</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43318</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43322</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43340</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43383</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43384</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43391</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43429</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43438</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43446</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43454</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43476</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43490</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43495</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43499</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43501</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43509</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43510</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43516</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43517</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43524</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43535</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43539</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43543</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43545</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43557</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43563</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43579</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43584</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43587</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43599</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43602</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43612</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43619</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43633</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43643</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43648</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43650</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>43656</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>43657</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43678</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43692</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43696</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43697</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>43705</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>43710</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>43713</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43717</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43720</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43725</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43727</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43742</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43760</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43771</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43775</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43782</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43787</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43791</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43797</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43810</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43811</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43841</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43847</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43858</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43865</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43868</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43882</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43885</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43886</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43893</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43899</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43902</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43903</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43910</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43922</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43923</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43937</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>43943</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>43949</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43966</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43974</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43975</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43989</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43997</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44000</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44004</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44014</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44015</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44025</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44027</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44047</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44064</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44066</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44069</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44070</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44078</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44081</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44083</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44088</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44100</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44118</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44119</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44126</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44133</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>44138</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44140</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44145</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44146</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         <v>44148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44159</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44161</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44165</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44173</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44207</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44208</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44209</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44215</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44216</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44224</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>44228</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44232</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44235</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44236</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>44237</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>44239</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>44242</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>44244</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44246</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44250</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44265</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44273</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>44284</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>44285</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>44299</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>44302</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>44305</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>44308</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44316</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44319</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44323</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44328</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44343</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44353</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44355</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44358</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44365</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44371</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44376</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44378</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44379</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44400</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44406</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44414</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44421</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44428</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44446</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44454</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44455</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44456</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44459</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44465</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44467</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44488</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44489</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44495</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44496</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44498</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44501</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44507</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44516</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44519</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44522</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44530</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44544</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44563</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44575</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44594</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44606</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44607</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44614</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44615</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44626</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44648</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44712</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
         <v>44715</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23345,7 +23345,7 @@
         <v>44721</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44725</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44735</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44748</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44791</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44802</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24257,7 +24257,7 @@
         <v>44810</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>44818</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44860</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44873</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44893</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44894</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44896</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44903</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44910</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44917</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>44923</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44931</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44935</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44952</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44957</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44966</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44971</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44974</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44977</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45002</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>45008</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>45009</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>45012</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>45026</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>45027</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45028</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45040</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45051</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45084</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45092</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>45093</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27303,7 +27303,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27588,7 +27588,7 @@
         <v>45098</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>45100</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45103</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>45110</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>45111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>45112</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>45119</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>45135</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>45153</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>45154</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>45159</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>45161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>45166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>45176</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -572,7 +572,7 @@
         <v>44208</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44530</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>44760</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44965</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44977</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43318</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43322</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43340</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43383</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43384</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43391</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43429</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43438</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43446</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43454</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43476</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43490</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43495</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43499</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43501</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43509</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43510</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43516</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43517</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43524</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43535</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43539</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43543</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43545</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43557</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43563</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43579</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43584</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43587</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43599</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43602</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43612</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43619</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43633</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43643</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43648</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43650</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>43656</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>43657</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43678</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43692</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43696</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43697</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>43705</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>43710</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>43713</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43717</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43720</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43725</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43727</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43742</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43760</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43771</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43775</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43782</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43787</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43791</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43797</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43810</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43811</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43841</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43847</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43858</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43865</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43868</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43882</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43885</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43886</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43893</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43899</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43902</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43903</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43910</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43922</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43923</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43937</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>43943</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>43949</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43966</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43974</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43975</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43989</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43997</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44000</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44004</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44014</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44015</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44025</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44027</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44047</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44064</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44066</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44069</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44070</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44078</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44081</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44083</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44088</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44100</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44118</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44119</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44126</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44133</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>44138</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44140</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44145</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44146</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         <v>44148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44159</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44161</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44165</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44173</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44207</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44208</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44209</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44215</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44216</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44224</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>44228</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44232</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44235</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44236</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>44237</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>44239</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>44242</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>44244</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44246</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44250</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44265</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44273</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>44284</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>44285</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>44299</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>44302</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>44305</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>44308</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44316</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44319</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44323</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44328</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44343</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44353</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44355</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44358</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44365</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44371</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44376</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44378</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44379</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44400</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44406</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44414</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44421</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44428</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44446</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44454</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44455</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44456</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44459</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44465</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44467</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44488</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44489</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44495</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44496</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44498</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44501</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44507</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44516</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44519</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44522</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44530</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44544</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44563</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44575</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44594</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44606</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44607</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44614</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44615</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44626</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44648</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44712</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
         <v>44715</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23345,7 +23345,7 @@
         <v>44721</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44725</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44735</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44748</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44791</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44802</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24257,7 +24257,7 @@
         <v>44810</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>44818</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44860</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44873</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44893</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44894</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44896</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44903</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44910</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44917</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>44923</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44931</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44935</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44952</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44957</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44966</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44971</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44974</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44977</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45002</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>45008</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>45009</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>45012</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>45026</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>45027</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45028</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45040</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45051</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45084</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45092</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>45093</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27303,7 +27303,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27588,7 +27588,7 @@
         <v>45098</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>45100</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45103</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>45110</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>45111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>45112</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>45119</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>45135</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>45153</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>45154</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>45159</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>45161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>45166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>45176</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -572,7 +572,7 @@
         <v>44208</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44530</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>44760</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44965</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44977</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43318</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43322</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43340</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43383</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43384</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43391</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43429</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43438</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43446</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43454</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43476</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43490</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43495</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43499</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43501</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43509</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43510</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43516</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43517</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43524</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43535</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43539</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43543</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43545</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43557</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43563</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43579</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43584</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43587</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43599</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43602</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43612</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43619</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43633</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43643</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43648</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43650</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>43656</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>43657</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43678</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43692</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43696</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43697</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>43705</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>43710</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>43713</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43717</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43720</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43725</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43727</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43742</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43760</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43771</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43775</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43782</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43787</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43791</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43797</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43810</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43811</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43841</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43847</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43858</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43865</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43868</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43882</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43885</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43886</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43893</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43899</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43902</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43903</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43910</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43922</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43923</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43937</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>43943</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>43949</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43966</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43974</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43975</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43989</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43997</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44000</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44004</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44014</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44015</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44025</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44027</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44047</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44064</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44066</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44069</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44070</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44078</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44081</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44083</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44088</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44100</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44118</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44119</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44126</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44133</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>44138</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44140</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44145</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44146</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         <v>44148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44159</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44161</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44165</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44173</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44207</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44208</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44209</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44215</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44216</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44224</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>44228</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44232</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44235</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44236</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>44237</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>44239</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>44242</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>44244</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44246</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44250</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44265</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44273</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>44284</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>44285</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>44299</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>44302</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>44305</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>44308</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44316</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44319</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44323</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44328</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44343</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44353</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44355</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44358</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44365</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44371</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44376</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44378</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44379</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44400</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44406</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44414</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44421</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44428</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44446</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44454</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44455</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44456</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44459</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44465</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44467</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44488</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44489</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44495</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44496</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44498</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44501</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44507</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44516</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44519</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44522</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44530</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44544</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44563</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44575</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44594</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44606</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44607</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44614</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44615</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44626</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44648</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44712</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
         <v>44715</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23345,7 +23345,7 @@
         <v>44721</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44725</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44735</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44748</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44791</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44802</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24257,7 +24257,7 @@
         <v>44810</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>44818</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44860</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44873</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44893</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44894</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44896</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44903</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44910</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44917</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>44923</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44931</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44935</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44952</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44957</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44966</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44971</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44974</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44977</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45002</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>45008</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>45009</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>45012</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>45026</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>45027</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45028</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45040</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45051</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45084</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45092</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>45093</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27303,7 +27303,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27588,7 +27588,7 @@
         <v>45098</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>45100</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45103</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>45110</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>45111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>45112</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>45119</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>45135</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>45153</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>45154</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>45159</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>45161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>45166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>45176</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -572,7 +572,7 @@
         <v>44208</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44530</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>44760</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44965</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44977</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>43318</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43322</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43340</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43383</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43384</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43391</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43429</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43438</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43446</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43454</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43476</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43490</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43495</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43499</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43501</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43509</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43510</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43516</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43517</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43524</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43535</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43539</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43543</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43545</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43557</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43563</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43579</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43584</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43587</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43599</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43602</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43612</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43619</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43633</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43643</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43648</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43650</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>43656</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>43657</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43678</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43692</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43696</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43697</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>43705</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>43710</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>43713</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43717</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43720</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43725</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43727</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43742</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43760</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43771</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43775</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43782</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43787</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43791</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43797</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43810</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43811</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43841</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43847</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43858</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43865</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43868</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43882</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43885</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43886</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43893</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43899</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43902</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43903</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43910</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43922</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43923</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43937</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>43943</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>43949</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43966</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43974</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43975</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43989</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43997</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44000</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44004</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44014</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44015</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44025</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44027</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44047</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44064</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44066</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44069</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44070</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44078</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44081</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44083</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44088</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44100</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44118</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44119</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44126</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44133</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>44138</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44140</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44145</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44146</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         <v>44148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44159</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44161</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44165</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44173</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44207</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44208</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44209</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44215</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44216</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44224</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>44228</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44232</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44235</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44236</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>44237</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>44239</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>44242</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>44244</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44246</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44250</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44265</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44273</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>44284</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>44285</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>44299</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>44302</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>44305</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>44308</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44316</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44319</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44323</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44328</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44343</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44353</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44355</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44358</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44365</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44371</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44376</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44378</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44379</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44400</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44406</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44414</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44421</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44428</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44446</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44454</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44455</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44456</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44459</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44465</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44467</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44488</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44489</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44495</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44496</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44498</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44501</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44507</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44516</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44519</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44522</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44530</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44544</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44563</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44575</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44594</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44606</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44607</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44614</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44615</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44626</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44648</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44712</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
         <v>44715</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23345,7 +23345,7 @@
         <v>44721</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44725</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44735</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44748</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44791</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44802</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24257,7 +24257,7 @@
         <v>44810</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>44818</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44860</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44873</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44893</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44894</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44896</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44903</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44910</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44917</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>44923</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44931</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44935</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44952</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44957</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44966</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44971</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44974</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44977</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45002</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>45008</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>45009</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>45012</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>45026</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>45027</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45028</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45040</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45051</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45084</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45092</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>45093</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27303,7 +27303,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27588,7 +27588,7 @@
         <v>45098</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>45100</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45103</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>45110</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>45111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>45112</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>45119</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>45135</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>45153</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>45154</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>45159</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>45161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>45166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>45176</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -572,7 +572,7 @@
         <v>44208</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -623,27 +623,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/artfynd/A 1319-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/artfynd/A 1319-2021.xlsx", "A 1319-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/kartor/A 1319-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/kartor/A 1319-2021.png", "A 1319-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomål/A 1319-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomål/A 1319-2021.docx", "A 1319-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomålsmail/A 1319-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomålsmail/A 1319-2021.docx", "A 1319-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsyn/A 1319-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsyn/A 1319-2021.docx", "A 1319-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsynsmail/A 1319-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsynsmail/A 1319-2021.docx", "A 1319-2021")</f>
         <v/>
       </c>
     </row>
@@ -657,7 +657,7 @@
         <v>44530</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -708,27 +708,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/artfynd/A 69075-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/artfynd/A 69075-2021.xlsx", "A 69075-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/kartor/A 69075-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/kartor/A 69075-2021.png", "A 69075-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomål/A 69075-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomål/A 69075-2021.docx", "A 69075-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomålsmail/A 69075-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomålsmail/A 69075-2021.docx", "A 69075-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsyn/A 69075-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsyn/A 69075-2021.docx", "A 69075-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsynsmail/A 69075-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsynsmail/A 69075-2021.docx", "A 69075-2021")</f>
         <v/>
       </c>
     </row>
@@ -742,7 +742,7 @@
         <v>44760</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -793,31 +793,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/artfynd/A 30362-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/artfynd/A 30362-2022.xlsx", "A 30362-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/kartor/A 30362-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/kartor/A 30362-2022.png", "A 30362-2022")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/knärot/A 30362-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/knärot/A 30362-2022.png", "A 30362-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomål/A 30362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomål/A 30362-2022.docx", "A 30362-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomålsmail/A 30362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomålsmail/A 30362-2022.docx", "A 30362-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsyn/A 30362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsyn/A 30362-2022.docx", "A 30362-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsynsmail/A 30362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsynsmail/A 30362-2022.docx", "A 30362-2022")</f>
         <v/>
       </c>
     </row>
@@ -831,7 +831,7 @@
         <v>44923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -882,27 +882,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/artfynd/A 62297-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/artfynd/A 62297-2022.xlsx", "A 62297-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/kartor/A 62297-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/kartor/A 62297-2022.png", "A 62297-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomål/A 62297-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomål/A 62297-2022.docx", "A 62297-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomålsmail/A 62297-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomålsmail/A 62297-2022.docx", "A 62297-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsyn/A 62297-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsyn/A 62297-2022.docx", "A 62297-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsynsmail/A 62297-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsynsmail/A 62297-2022.docx", "A 62297-2022")</f>
         <v/>
       </c>
     </row>
@@ -916,7 +916,7 @@
         <v>44965</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,27 +972,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/artfynd/A 6359-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/artfynd/A 6359-2023.xlsx", "A 6359-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/kartor/A 6359-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/kartor/A 6359-2023.png", "A 6359-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomål/A 6359-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomål/A 6359-2023.docx", "A 6359-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomålsmail/A 6359-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomålsmail/A 6359-2023.docx", "A 6359-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsyn/A 6359-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsyn/A 6359-2023.docx", "A 6359-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsynsmail/A 6359-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsynsmail/A 6359-2023.docx", "A 6359-2023")</f>
         <v/>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         <v>44977</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,27 +1057,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/artfynd/A 8483-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/artfynd/A 8483-2023.xlsx", "A 8483-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/kartor/A 8483-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/kartor/A 8483-2023.png", "A 8483-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomål/A 8483-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomål/A 8483-2023.docx", "A 8483-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomålsmail/A 8483-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomålsmail/A 8483-2023.docx", "A 8483-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsyn/A 8483-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsyn/A 8483-2023.docx", "A 8483-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsynsmail/A 8483-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsynsmail/A 8483-2023.docx", "A 8483-2023")</f>
         <v/>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1142,27 +1142,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/artfynd/A 8486-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/artfynd/A 8486-2023.xlsx", "A 8486-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/kartor/A 8486-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/kartor/A 8486-2023.png", "A 8486-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomål/A 8486-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomål/A 8486-2023.docx", "A 8486-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomålsmail/A 8486-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomålsmail/A 8486-2023.docx", "A 8486-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsyn/A 8486-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsyn/A 8486-2023.docx", "A 8486-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsynsmail/A 8486-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsynsmail/A 8486-2023.docx", "A 8486-2023")</f>
         <v/>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1232,27 +1232,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/artfynd/A 22367-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/artfynd/A 22367-2023.xlsx", "A 22367-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/kartor/A 22367-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/kartor/A 22367-2023.png", "A 22367-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomål/A 22367-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomål/A 22367-2023.docx", "A 22367-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomålsmail/A 22367-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomålsmail/A 22367-2023.docx", "A 22367-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsyn/A 22367-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsyn/A 22367-2023.docx", "A 22367-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsynsmail/A 22367-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsynsmail/A 22367-2023.docx", "A 22367-2023")</f>
         <v/>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         <v>45077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1317,27 +1317,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/artfynd/A 23694-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/artfynd/A 23694-2023.xlsx", "A 23694-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/kartor/A 23694-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/kartor/A 23694-2023.png", "A 23694-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomål/A 23694-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomål/A 23694-2023.docx", "A 23694-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomålsmail/A 23694-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/klagomålsmail/A 23694-2023.docx", "A 23694-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsyn/A 23694-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsyn/A 23694-2023.docx", "A 23694-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsynsmail/A 23694-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GISLAVED/tillsynsmail/A 23694-2023.docx", "A 23694-2023")</f>
         <v/>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
         <v>43318</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43322</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43340</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43383</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43384</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43391</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43429</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43438</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43446</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43454</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43476</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43490</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43495</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43499</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43501</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43509</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43510</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43516</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43517</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43524</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43535</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43539</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43543</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43545</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43557</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43563</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43579</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43584</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43587</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43599</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43602</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43612</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43619</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43633</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43643</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43648</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43650</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>43656</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>43657</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43678</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43692</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43696</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43697</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>43705</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>43710</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>43713</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43717</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43720</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43725</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43727</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43742</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43760</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>43771</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43775</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43782</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43787</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43791</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43797</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43810</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43811</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43841</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43847</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43858</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43865</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43868</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43882</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43885</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43886</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43893</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43899</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43902</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43903</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43910</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43922</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43923</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43937</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>43943</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>43949</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43966</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43974</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43975</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43989</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43997</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44000</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44004</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44014</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44015</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44022</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44025</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44027</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44047</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44063</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44064</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44066</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44069</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44070</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44078</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44081</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44083</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44088</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44100</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44103</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44118</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44119</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44126</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44133</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>44138</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44140</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44145</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44146</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         <v>44148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44159</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44161</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44165</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44173</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44207</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44208</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44209</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44215</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44216</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44224</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>44228</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44232</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44235</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44236</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>44237</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>44239</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>44242</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>44244</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44245</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44246</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44250</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44265</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44273</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>44284</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>44285</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>44299</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>44302</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>44305</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>44308</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44316</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44319</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44323</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44328</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44343</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44353</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44355</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44358</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44365</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44371</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44376</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44378</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44379</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44386</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44400</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44406</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44414</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44421</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44428</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44446</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44454</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44455</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44456</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44459</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44465</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44467</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>44488</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44489</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44495</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44496</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44498</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44501</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44507</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44508</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44516</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44519</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>44522</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44523</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44530</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44544</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44563</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44575</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44594</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>44606</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44607</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44614</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44615</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44626</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44648</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44691</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44712</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
         <v>44715</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23345,7 +23345,7 @@
         <v>44721</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44725</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44735</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44748</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44791</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44802</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44809</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24257,7 +24257,7 @@
         <v>44810</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>44818</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>44840</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44860</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44873</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44893</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44894</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44896</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44903</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44910</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44917</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>44923</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44931</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44935</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44952</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44957</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44966</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44971</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44974</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44977</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45002</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>45008</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>45009</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>45012</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>45026</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>45027</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45028</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45040</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45051</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45084</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45092</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>45093</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27303,7 +27303,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27588,7 +27588,7 @@
         <v>45098</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>45100</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45103</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>45110</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>45111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>45112</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>45119</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>45135</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>45153</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>45154</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>45159</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>45161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>45166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>45176</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -572,7 +572,7 @@
         <v>45187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44760</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44923</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44965</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44977</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45070</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>45077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43318</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43322</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43340</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43355</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43377</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43383</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43391</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43419</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43429</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43433</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43454</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>43473</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43490</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43493</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43499</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43501</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43502</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43503</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43516</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43517</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43524</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43535</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43539</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43541</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43558</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43566</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43579</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43587</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43599</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43602</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43607</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43619</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43648</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43650</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43654</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43657</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43664</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43678</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43689</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43690</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43692</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43697</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43705</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43710</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43713</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43717</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43720</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43725</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43727</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43742</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43760</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43771</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43775</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43782</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43787</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43791</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43797</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43810</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>43811</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>43815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43838</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43841</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43847</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43858</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43865</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43885</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>43886</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>43889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43908</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43909</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>43910</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>43922</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>43923</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43949</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43966</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43969</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43974</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43975</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43989</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43998</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>44004</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44014</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>44015</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44022</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>44025</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44027</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44047</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44063</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44064</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44066</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44069</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44070</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44078</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44081</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44083</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>44100</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>44103</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>44111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>44118</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         <v>44119</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>44126</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>44133</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15738,7 +15738,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44138</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44140</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44145</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44146</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>44148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44161</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>44165</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44166</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44207</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44208</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44209</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44215</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44216</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44224</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44228</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44232</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44235</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44237</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44239</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44242</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44243</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44246</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44250</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44265</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44273</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44284</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44285</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44299</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44302</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44305</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>44308</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44316</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44319</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44323</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44328</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44343</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44355</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44356</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44358</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44365</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44371</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44376</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44378</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44379</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44400</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44406</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44414</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44421</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>44428</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44454</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>44455</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>44456</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44459</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44463</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44465</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44467</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>44488</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44489</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44495</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44498</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44507</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44508</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44516</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44519</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44522</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44523</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44530</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44544</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44563</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44575</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44594</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44606</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44607</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
         <v>44614</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22683,7 +22683,7 @@
         <v>44615</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22740,7 +22740,7 @@
         <v>44626</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         <v>44648</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44691</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44711</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>44712</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44721</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44725</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44735</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44748</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44791</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44802</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44809</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44818</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44840</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44860</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44873</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44893</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>44894</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>44896</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44910</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44917</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>44923</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>44931</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>44935</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44949</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44952</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44957</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44966</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>44971</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>44974</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>44977</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44986</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45002</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45008</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45009</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45012</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>45026</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>45027</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45028</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>45040</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>45051</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>45084</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45093</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>45098</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>45100</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>45103</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>45110</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>45111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>45112</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45113</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45119</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>45135</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45140</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>45153</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45154</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45159</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45161</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45166</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45176</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29355,7 +29355,7 @@
         <v>45187</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -572,7 +572,7 @@
         <v>45187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44760</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44923</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44965</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44977</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45070</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>45077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43318</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43322</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43340</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43355</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43377</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43383</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43391</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43419</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43429</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43433</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43454</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>43473</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43490</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43493</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43499</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43501</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43502</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43503</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43516</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43517</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43524</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43535</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43539</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43541</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43558</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43566</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43579</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43587</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43599</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43602</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43607</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43619</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43648</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43650</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43654</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43657</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43664</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43678</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43689</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43690</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43692</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43697</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43705</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43710</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43713</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43717</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43720</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43725</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43727</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43742</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43760</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43771</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43775</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43782</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43787</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43791</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43797</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43810</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>43811</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>43815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43838</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43841</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43847</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43858</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43865</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43885</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>43886</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>43889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43908</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43909</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>43910</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>43922</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>43923</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43949</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43966</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43969</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43974</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43975</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43989</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43998</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>44004</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44014</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>44015</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44022</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>44025</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44027</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44047</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44063</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44064</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44066</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44069</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44070</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44078</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44081</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44083</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>44100</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>44103</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>44111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>44118</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         <v>44119</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>44126</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>44133</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15738,7 +15738,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44138</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44140</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44145</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44146</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>44148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44161</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>44165</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44166</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44207</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44208</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44209</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44215</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44216</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44224</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44228</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44232</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44235</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44237</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44239</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44242</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44243</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44246</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44250</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44265</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44273</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44284</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44285</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44299</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44302</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44305</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>44308</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44316</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44319</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44323</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44328</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44343</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44355</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44356</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44358</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44365</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44371</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44376</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44378</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44379</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44400</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44406</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44414</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44421</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>44428</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44454</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>44455</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>44456</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44459</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44463</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44465</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44467</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>44488</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44489</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44495</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44498</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44507</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44508</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44516</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44519</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44522</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44523</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44530</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44544</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44563</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44575</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44594</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44606</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44607</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
         <v>44614</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22683,7 +22683,7 @@
         <v>44615</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22740,7 +22740,7 @@
         <v>44626</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         <v>44648</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44691</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44711</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>44712</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44721</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44725</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44735</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44748</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44791</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44802</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44809</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44818</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44840</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44860</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44873</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44893</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>44894</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>44896</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44910</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44917</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>44923</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>44931</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>44935</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44949</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44952</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44957</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44966</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>44971</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>44974</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>44977</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44986</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45002</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45008</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45009</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45012</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>45026</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>45027</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45028</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>45040</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>45051</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>45084</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45093</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>45098</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>45100</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>45103</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>45110</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>45111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>45112</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45113</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45119</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>45135</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45140</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>45153</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45154</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45159</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45161</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45166</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45176</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29355,7 +29355,7 @@
         <v>45187</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y497"/>
+  <dimension ref="A1:Y499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44760</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44923</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44965</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44977</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45070</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>45077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43318</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43322</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43340</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43355</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43377</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43383</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43391</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43419</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43429</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43433</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43454</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>43473</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43490</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43493</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43499</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43501</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43502</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43503</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43516</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43517</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43524</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43535</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43539</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43541</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43558</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43566</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43579</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43587</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43599</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43602</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43607</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43619</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43648</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43650</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43654</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43657</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43664</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43678</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43689</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43690</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43692</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43697</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43705</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43710</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43713</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43717</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43720</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43725</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43727</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43742</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43760</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43771</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43775</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43782</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43787</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43791</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43797</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43810</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>43811</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>43815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43838</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43841</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43847</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43858</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43865</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43885</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>43886</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>43889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43908</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43909</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>43910</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>43922</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>43923</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43949</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43966</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43969</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43974</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43975</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43989</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43998</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>44004</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44014</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>44015</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44022</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>44025</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44027</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44047</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44063</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44064</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44066</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44069</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44070</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44078</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44081</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44083</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>44100</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>44103</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>44111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>44118</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         <v>44119</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>44126</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>44133</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15738,7 +15738,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44138</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44140</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44145</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44146</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>44148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44161</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>44165</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44166</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44207</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44208</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44209</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44215</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44216</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44224</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44228</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44232</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44235</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44237</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44239</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44242</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44243</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44246</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44250</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44265</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44273</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44284</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44285</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44299</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44302</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44305</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>44308</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44316</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44319</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44323</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44328</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44343</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44355</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44356</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44358</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44365</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44371</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44376</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44378</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44379</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44400</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44406</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44414</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44421</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>44428</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44454</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>44455</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>44456</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44459</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44463</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44465</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44467</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>44488</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44489</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44495</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44498</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44507</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44508</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44516</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44519</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44522</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44523</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44530</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44544</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44563</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44575</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44594</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44606</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44607</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
         <v>44614</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22683,7 +22683,7 @@
         <v>44615</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22740,7 +22740,7 @@
         <v>44626</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         <v>44648</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44691</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44711</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>44712</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44721</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44725</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44735</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44748</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44791</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44802</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44809</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44818</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44840</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44860</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44873</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44893</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>44894</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>44896</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44910</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44917</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>44923</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>44931</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>44935</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44949</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44952</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44957</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44966</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>44971</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>44974</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>44977</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44986</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45002</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45008</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45009</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45012</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>45026</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>45027</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45028</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>45040</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>45051</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>45084</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45093</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>45098</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>45100</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>45103</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>45110</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>45111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>45112</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45113</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45119</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>45135</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45140</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>45153</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45154</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45159</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45161</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45166</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45176</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
       </c>
       <c r="R496" s="2" t="inlineStr"/>
     </row>
-    <row r="497">
+    <row r="497" ht="15" customHeight="1">
       <c r="A497" t="inlineStr">
         <is>
           <t>A 43713-2023</t>
@@ -29355,7 +29355,7 @@
         <v>45187</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29401,6 +29401,120 @@
         <v>0</v>
       </c>
       <c r="R497" s="2" t="inlineStr"/>
+    </row>
+    <row r="498" ht="15" customHeight="1">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>A 44469-2023</t>
+        </is>
+      </c>
+      <c r="B498" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C498" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>GISLAVED</t>
+        </is>
+      </c>
+      <c r="G498" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0</v>
+      </c>
+      <c r="J498" t="n">
+        <v>0</v>
+      </c>
+      <c r="K498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N498" t="n">
+        <v>0</v>
+      </c>
+      <c r="O498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R498" s="2" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>A 44742-2023</t>
+        </is>
+      </c>
+      <c r="B499" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C499" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>GISLAVED</t>
+        </is>
+      </c>
+      <c r="G499" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0</v>
+      </c>
+      <c r="I499" t="n">
+        <v>0</v>
+      </c>
+      <c r="J499" t="n">
+        <v>0</v>
+      </c>
+      <c r="K499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N499" t="n">
+        <v>0</v>
+      </c>
+      <c r="O499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R499" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y499"/>
+  <dimension ref="A1:Y500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44760</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44923</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44965</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44977</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45070</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>45077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43318</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43322</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43340</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43355</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43377</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43383</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43391</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43419</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43429</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43433</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43454</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>43473</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43490</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43493</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43499</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43501</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43502</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43503</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43516</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43517</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43524</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43535</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43539</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43541</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43558</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43566</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43579</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43587</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43599</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43602</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43607</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43619</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43648</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43650</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43654</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43657</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43664</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43678</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43689</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43690</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43692</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43697</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43705</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43710</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43713</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43717</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43720</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43725</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43727</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43742</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43760</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43771</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43775</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43782</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43787</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43791</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43797</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43810</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>43811</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>43815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43838</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43841</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43847</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43858</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43865</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43885</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>43886</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>43889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43908</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43909</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>43910</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>43922</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>43923</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43949</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43966</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43969</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43974</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43975</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43989</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43998</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>44004</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44014</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>44015</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44022</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>44025</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44027</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44047</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44063</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44064</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44066</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44069</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44070</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44078</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44081</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44083</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>44100</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>44103</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>44111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>44118</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         <v>44119</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>44126</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>44133</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15738,7 +15738,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44138</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44140</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44145</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44146</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>44148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44161</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>44165</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44166</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44207</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44208</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44209</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44215</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44216</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44224</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44228</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44232</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44235</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44237</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44239</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44242</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44243</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44246</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44250</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44265</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44273</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44284</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44285</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44299</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44302</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44305</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>44308</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44316</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44319</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44323</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44328</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44343</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44355</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44356</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44358</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44365</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44371</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44376</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44378</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44379</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44400</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44406</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44414</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44421</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>44428</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44454</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>44455</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>44456</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44459</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44463</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44465</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44467</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>44488</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44489</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44495</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44498</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44507</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44508</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44516</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44519</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44522</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44523</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44530</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44544</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44563</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44575</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44594</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44606</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44607</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
         <v>44614</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22683,7 +22683,7 @@
         <v>44615</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22740,7 +22740,7 @@
         <v>44626</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         <v>44648</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44691</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44711</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>44712</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44721</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44725</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44735</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44748</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44791</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44802</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44809</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44818</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44840</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44860</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44873</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44893</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>44894</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>44896</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44910</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44917</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>44923</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>44931</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>44935</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44949</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44952</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44957</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44966</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>44971</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>44974</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>44977</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44986</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45002</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45008</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45009</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45012</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>45026</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>45027</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45028</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>45040</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>45051</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>45084</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45093</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>45098</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>45100</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>45103</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>45110</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>45111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>45112</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45113</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45119</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>45135</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45140</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>45153</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45154</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45159</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45161</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45166</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45176</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29355,7 +29355,7 @@
         <v>45187</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45189</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
       </c>
       <c r="R498" s="2" t="inlineStr"/>
     </row>
-    <row r="499">
+    <row r="499" ht="15" customHeight="1">
       <c r="A499" t="inlineStr">
         <is>
           <t>A 44742-2023</t>
@@ -29469,7 +29469,7 @@
         <v>45190</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29515,6 +29515,63 @@
         <v>0</v>
       </c>
       <c r="R499" s="2" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>A 46165-2023</t>
+        </is>
+      </c>
+      <c r="B500" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C500" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>GISLAVED</t>
+        </is>
+      </c>
+      <c r="G500" t="n">
+        <v>4</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0</v>
+      </c>
+      <c r="J500" t="n">
+        <v>0</v>
+      </c>
+      <c r="K500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N500" t="n">
+        <v>0</v>
+      </c>
+      <c r="O500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R500" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -572,7 +572,7 @@
         <v>45187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44760</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44923</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44965</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44977</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45070</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>45077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43318</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43322</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43340</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43355</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43377</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43383</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43391</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43419</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43429</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43433</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43454</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>43473</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43490</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43493</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43499</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43501</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43502</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43503</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43516</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43517</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43524</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43535</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43539</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43541</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43558</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43566</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43579</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43587</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43599</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43602</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43607</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43619</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43648</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43650</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43654</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43657</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43664</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43678</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43689</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43690</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43692</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43697</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43705</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43710</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43713</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43717</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43720</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43725</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43727</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43742</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43760</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43771</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43775</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43782</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43787</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43791</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43797</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43810</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>43811</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>43815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43838</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43841</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43847</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43858</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43865</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43885</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>43886</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>43889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43908</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43909</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>43910</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>43922</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>43923</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43949</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43966</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43969</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43974</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43975</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43989</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43998</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>44004</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44014</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>44015</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44022</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>44025</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44027</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44047</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44063</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44064</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44066</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44069</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44070</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44078</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44081</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44083</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>44100</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>44103</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>44111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>44118</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         <v>44119</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>44126</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>44133</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15738,7 +15738,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44138</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44140</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44145</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44146</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>44148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44161</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>44165</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44166</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44207</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44208</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44209</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44215</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44216</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44224</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44228</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44232</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44235</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44237</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44239</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44242</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44243</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44246</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44250</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44265</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44273</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44284</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44285</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44299</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44302</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44305</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>44308</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44316</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44319</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44323</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44328</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44343</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44355</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44356</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44358</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44365</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44371</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44376</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44378</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44379</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44400</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44406</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44414</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44421</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>44428</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44454</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>44455</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>44456</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44459</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44463</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44465</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44467</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>44488</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44489</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44495</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44498</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44507</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44508</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44516</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44519</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44522</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44523</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44530</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44544</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44563</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44575</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44594</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44606</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44607</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
         <v>44614</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22683,7 +22683,7 @@
         <v>44615</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22740,7 +22740,7 @@
         <v>44626</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         <v>44648</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44691</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44711</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>44712</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44721</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44725</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44735</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44748</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44791</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44802</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44809</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44818</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44840</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44860</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44873</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44893</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>44894</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>44896</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44910</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44917</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>44923</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>44931</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>44935</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44949</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44952</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44957</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44966</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>44971</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>44974</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>44977</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44986</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45002</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45008</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45009</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45012</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>45026</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>45027</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45028</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>45040</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>45051</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>45084</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45093</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>45098</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>45100</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>45103</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>45110</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>45111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>45112</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45113</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45119</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>45135</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45140</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>45153</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45154</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45159</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45161</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45166</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45176</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29355,7 +29355,7 @@
         <v>45187</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45189</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29469,7 +29469,7 @@
         <v>45190</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29526,7 +29526,7 @@
         <v>45196</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -572,7 +572,7 @@
         <v>45187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44760</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44923</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44965</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44977</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45070</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>45077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43318</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43322</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43340</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43355</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43377</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43383</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43391</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43419</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43429</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43433</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43454</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>43473</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43490</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43493</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43499</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43501</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43502</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43503</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43516</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43517</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43524</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43535</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43539</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43541</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43558</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43566</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43579</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43587</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43599</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43602</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43607</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43619</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43648</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43650</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43654</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43657</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43664</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43678</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43689</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43690</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43692</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43697</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43705</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43710</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43713</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43717</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43720</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43725</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43727</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43742</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43760</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43771</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43775</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43782</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43787</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43791</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43797</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43810</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>43811</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>43815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43838</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43841</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43847</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43858</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43865</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43885</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>43886</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>43889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43908</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43909</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>43910</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>43922</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>43923</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43949</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43966</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43969</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43974</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43975</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43989</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43998</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>44004</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44014</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>44015</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44022</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>44025</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44027</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44047</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44063</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44064</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44066</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44069</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44070</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44078</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44081</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44083</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>44100</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>44103</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>44111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>44118</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         <v>44119</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>44126</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>44133</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15738,7 +15738,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44138</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44140</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44145</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44146</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>44148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44161</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>44165</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44166</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44207</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44208</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44209</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44215</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44216</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44224</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44228</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44232</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44235</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44237</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44239</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44242</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44243</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44246</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44250</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44265</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44273</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44284</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44285</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44299</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44302</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44305</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>44308</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44316</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44319</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44323</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44328</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44343</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44355</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44356</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44358</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44365</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44371</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44376</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44378</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44379</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44400</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44406</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44414</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44421</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>44428</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44454</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>44455</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>44456</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44459</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44463</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44465</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44467</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>44488</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44489</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44495</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44498</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44507</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44508</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44516</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44519</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44522</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44523</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44530</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44544</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44563</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44575</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44594</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44606</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44607</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
         <v>44614</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22683,7 +22683,7 @@
         <v>44615</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22740,7 +22740,7 @@
         <v>44626</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         <v>44648</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44691</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44711</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>44712</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44721</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44725</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44735</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44748</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44791</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44802</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44809</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44818</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44840</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44860</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44873</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44893</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>44894</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>44896</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44910</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44917</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>44923</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>44931</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>44935</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44949</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44952</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44957</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44966</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>44971</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>44974</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>44977</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44986</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45002</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45008</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45009</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45012</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>45026</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>45027</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45028</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>45040</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>45051</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>45084</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45093</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>45098</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>45100</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>45103</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>45110</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>45111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>45112</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45113</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45119</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>45135</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45140</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>45153</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45154</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45159</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45161</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45166</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45176</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29355,7 +29355,7 @@
         <v>45187</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45189</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29469,7 +29469,7 @@
         <v>45190</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29526,7 +29526,7 @@
         <v>45196</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y500"/>
+  <dimension ref="A1:Y501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44760</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44923</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44965</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44977</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45070</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>45077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43318</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43322</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43340</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43355</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43377</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43383</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43391</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43419</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43429</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43433</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43454</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>43473</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43490</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43493</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43499</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43501</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43502</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43503</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43516</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43517</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43524</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43535</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43539</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43541</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43558</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43566</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43579</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43587</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43599</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43602</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43607</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43619</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43648</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43650</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43654</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43657</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43664</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43678</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43689</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43690</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43692</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43697</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43705</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43710</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43713</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43717</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43720</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43725</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43727</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43742</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43760</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43771</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43775</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43782</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43787</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43791</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43797</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43810</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>43811</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>43815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43838</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43841</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43847</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43858</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43865</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43885</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>43886</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>43889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43908</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43909</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>43910</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>43922</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>43923</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43949</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43966</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43969</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43974</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43975</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43989</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43998</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>44004</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44014</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>44015</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44022</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>44025</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44027</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44047</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44063</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44064</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44066</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44069</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44070</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44078</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44081</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44083</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>44100</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>44103</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>44111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>44118</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         <v>44119</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>44126</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>44133</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15738,7 +15738,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44138</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44140</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44145</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44146</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>44148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44161</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>44165</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44166</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44207</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44208</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44209</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44215</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44216</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44224</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44228</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44232</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44235</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44237</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44239</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44242</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44243</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44246</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44250</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44265</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44273</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44284</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44285</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44299</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44302</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44305</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>44308</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44316</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44319</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44323</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44328</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44343</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44355</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44356</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44358</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44365</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44371</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44376</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44378</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44379</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44400</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44406</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44414</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44421</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>44428</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44454</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>44455</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>44456</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44459</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44463</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44465</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44467</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>44488</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44489</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44495</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44498</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44507</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44508</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44516</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44519</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44522</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44523</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44530</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44544</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44563</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44575</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44594</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44606</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44607</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
         <v>44614</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22683,7 +22683,7 @@
         <v>44615</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22740,7 +22740,7 @@
         <v>44626</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         <v>44648</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44691</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44711</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>44712</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44721</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44725</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44735</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44748</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44791</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44802</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44809</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44818</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44840</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44860</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44873</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44893</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>44894</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>44896</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44910</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44917</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>44923</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>44931</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>44935</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44949</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44952</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44957</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44966</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>44971</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>44974</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>44977</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44986</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45002</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45008</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45009</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45012</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>45026</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>45027</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45028</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>45040</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>45051</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>45084</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45093</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>45098</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>45100</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>45103</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>45110</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>45111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>45112</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45113</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45119</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>45135</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45140</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>45153</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45154</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45159</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45161</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45166</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45176</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29355,7 +29355,7 @@
         <v>45187</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45189</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29469,7 +29469,7 @@
         <v>45190</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
       </c>
       <c r="R499" s="2" t="inlineStr"/>
     </row>
-    <row r="500">
+    <row r="500" ht="15" customHeight="1">
       <c r="A500" t="inlineStr">
         <is>
           <t>A 46165-2023</t>
@@ -29526,7 +29526,7 @@
         <v>45196</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29572,6 +29572,63 @@
         <v>0</v>
       </c>
       <c r="R500" s="2" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>A 47891-2023</t>
+        </is>
+      </c>
+      <c r="B501" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C501" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>GISLAVED</t>
+        </is>
+      </c>
+      <c r="G501" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H501" t="n">
+        <v>0</v>
+      </c>
+      <c r="I501" t="n">
+        <v>0</v>
+      </c>
+      <c r="J501" t="n">
+        <v>0</v>
+      </c>
+      <c r="K501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N501" t="n">
+        <v>0</v>
+      </c>
+      <c r="O501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R501" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -572,7 +572,7 @@
         <v>45187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44760</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44923</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44965</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44977</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45070</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>45077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43318</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43322</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43340</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43355</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43377</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43383</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43391</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43419</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43429</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43433</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43454</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>43473</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43490</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43493</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43499</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43501</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43502</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43503</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43516</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43517</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43524</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43535</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43539</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43541</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43558</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43566</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43579</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43587</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43599</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43602</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43607</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43619</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43648</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43650</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43654</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43657</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43664</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43678</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43689</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43690</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43692</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43697</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43705</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43710</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43713</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43717</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43720</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43725</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43727</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43742</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43760</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43771</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43775</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43782</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43787</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43791</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43797</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43810</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>43811</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>43815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43838</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43841</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43847</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43858</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43865</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43885</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>43886</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>43889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43908</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43909</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>43910</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>43922</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>43923</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43949</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43966</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43969</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43974</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43975</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43989</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43998</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>44004</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44014</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>44015</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44022</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>44025</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44027</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44047</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44063</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44064</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44066</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44069</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44070</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44078</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44081</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44083</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>44100</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>44103</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>44111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>44118</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         <v>44119</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>44126</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>44133</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15738,7 +15738,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44138</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44140</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44145</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44146</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>44148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44161</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>44165</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44166</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44207</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44208</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44209</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44215</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44216</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44224</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44228</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44232</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44235</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44237</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44239</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44242</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44243</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44246</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44250</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44265</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44273</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44284</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44285</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44299</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44302</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44305</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>44308</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44316</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44319</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44323</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44328</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44343</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44355</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44356</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44358</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44365</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44371</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44376</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44378</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44379</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44400</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44406</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44414</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44421</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>44428</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44454</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>44455</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>44456</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44459</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44463</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44465</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44467</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>44488</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44489</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44495</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44498</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44507</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44508</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44516</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44519</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44522</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44523</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44530</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44544</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44563</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44575</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44594</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44606</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44607</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
         <v>44614</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22683,7 +22683,7 @@
         <v>44615</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22740,7 +22740,7 @@
         <v>44626</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         <v>44648</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44691</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44711</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>44712</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44721</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44725</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44735</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44748</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44791</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44802</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44809</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44818</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44840</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44860</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44873</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44893</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>44894</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>44896</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44910</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44917</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>44923</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>44931</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>44935</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44949</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44952</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44957</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44966</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>44971</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>44974</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>44977</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44986</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45002</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45008</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45009</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45012</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>45026</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>45027</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45028</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>45040</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>45051</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>45084</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45093</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>45098</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>45100</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>45103</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>45110</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>45111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>45112</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45113</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45119</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>45135</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45140</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>45153</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45154</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45159</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45161</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45166</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45176</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29355,7 +29355,7 @@
         <v>45187</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45189</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29469,7 +29469,7 @@
         <v>45190</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29526,7 +29526,7 @@
         <v>45196</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>45204</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -572,7 +572,7 @@
         <v>45187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44760</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44923</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44965</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44977</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45070</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>45077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43318</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43322</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43340</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43355</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43377</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43383</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43383</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43391</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43419</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43419</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43429</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43433</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43438</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43440</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43446</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>43454</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>43473</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>43476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43490</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43493</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43493</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43493</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43499</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43501</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43502</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43503</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43503</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43504</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43504</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43516</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43516</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43516</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43517</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43524</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43529</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43529</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43530</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43535</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43539</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43541</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43557</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43558</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43566</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43579</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43587</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43599</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43602</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43607</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43619</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43648</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43650</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43650</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43650</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43650</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43654</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43657</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43664</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43664</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43678</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43689</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43690</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43691</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43691</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43692</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43692</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43697</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43705</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43710</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43713</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43717</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43720</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43725</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43727</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43727</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43727</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43742</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43760</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43771</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43775</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43782</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43787</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43791</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43791</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43791</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43797</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43797</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43810</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>43811</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>43815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43838</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43838</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43841</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43847</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43858</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43865</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43885</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>43886</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>43886</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>43889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>43893</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43908</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43909</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>43910</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>43922</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>43923</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43949</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43966</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43969</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43974</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43975</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43989</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43998</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44004</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44004</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>44004</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44014</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>44015</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44022</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44022</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44022</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44022</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44022</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44022</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>44025</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44027</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44047</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44063</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44064</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44064</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44066</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44066</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44066</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44069</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44070</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44078</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44081</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44083</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>44100</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>44103</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>44111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>44118</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         <v>44119</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>44126</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>44133</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>44133</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15738,7 +15738,7 @@
         <v>44138</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44138</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44140</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44145</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44146</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>44148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>44148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44159</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44161</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44161</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>44165</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44166</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44207</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44208</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44208</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44209</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44215</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44216</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44224</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44228</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44228</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44228</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44232</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44235</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44237</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44237</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44239</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44242</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44243</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44243</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44244</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44245</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44246</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44250</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44250</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44250</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44265</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44273</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44273</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44284</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44284</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44285</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44299</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44302</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44305</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>44308</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44316</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44319</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44323</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44328</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44343</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44353</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44353</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44353</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44355</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44356</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44358</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44365</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44371</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44376</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44378</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44379</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44386</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44400</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44406</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44406</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44414</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44421</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44421</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>44428</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44446</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44454</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>44455</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>44455</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>44456</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44459</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44463</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44465</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44467</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44488</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>44488</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44489</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44489</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44495</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44495</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44496</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44498</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44501</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44501</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44507</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44508</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44516</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44519</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44522</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44523</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44523</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44530</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44544</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44563</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44563</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44575</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44575</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44594</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44606</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44606</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44606</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44607</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44607</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44614</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44614</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44614</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
         <v>44614</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22683,7 +22683,7 @@
         <v>44615</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22740,7 +22740,7 @@
         <v>44626</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         <v>44648</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44691</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44711</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44712</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44712</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44712</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>44712</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44721</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44725</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44735</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44748</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44748</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44748</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44791</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44802</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44802</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44802</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44809</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44818</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44840</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44840</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>44840</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44840</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44860</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44873</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44893</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44893</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>44894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>44894</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>44896</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>44896</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44903</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44910</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44917</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>44923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>44923</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>44931</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>44935</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44949</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44952</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44957</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>44966</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44966</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>44971</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>44971</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>44974</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>44977</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>44986</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44986</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45002</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45008</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45008</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45009</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45012</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>45026</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>45027</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>45027</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45028</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>45040</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>45051</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>45084</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45093</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45093</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>45098</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>45100</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>45103</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>45103</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>45103</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45110</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>45110</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>45110</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>45110</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>45111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>45112</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>45112</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>45113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45113</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45119</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>45135</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45140</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>45153</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45154</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45159</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45161</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45166</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45176</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29355,7 +29355,7 @@
         <v>45187</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45189</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29469,7 +29469,7 @@
         <v>45190</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29526,7 +29526,7 @@
         <v>45196</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>45204</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
